--- a/doc/KAPT 공동주택 현황.xlsx
+++ b/doc/KAPT 공동주택 현황.xlsx
@@ -48821,7 +48821,7 @@
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>0312765975</t>
+          <t>0312765915</t>
         </is>
       </c>
       <c r="V364" t="inlineStr">
@@ -48834,7 +48834,11 @@
           <t>대림산업</t>
         </is>
       </c>
-      <c r="X364" t="inlineStr"/>
+      <c r="X364" t="inlineStr">
+        <is>
+          <t>cafe.naver.com/goodlucky</t>
+        </is>
+      </c>
       <c r="Y364" t="inlineStr">
         <is>
           <t>16498.294</t>
